--- a/Reports/heart/heart_tabfairgan_100_05.xlsx
+++ b/Reports/heart/heart_tabfairgan_100_05.xlsx
@@ -442,57 +442,57 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.0299</v>
+        <v>-0.2037</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.07140000000000001</v>
+        <v>-0.2037</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.8651</v>
+        <v>0.6276</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.9657</v>
+        <v>0.9402</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.0738</v>
+        <v>0.2468</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.1118</v>
+        <v>1.4462</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.0227</v>
+        <v>-0.079</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.0342</v>
+        <v>0.8836000000000001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.0239</v>
+        <v>-0.0367</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.0008</v>
+        <v>0.0012</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.6739000000000001</v>
+        <v>0.6815</v>
       </c>
     </row>
     <row r="13">
